--- a/Calibration/Testing/Iacono_MixedH2O-CO2Dataset.xlsx
+++ b/Calibration/Testing/Iacono_MixedH2O-CO2Dataset.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\OneDrive - University of Cambridge\!!!!!!PHD\Fissure8_MI_Work\MagmaSat\Model_Test_Final_Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE79944-A54F-4A3A-8916-0A95E5CB1205}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4E5ECD-265E-4A7C-A42C-28A79E8F5B32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{286DCE04-AB12-484B-880B-42B53AAF1A46}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{286DCE04-AB12-484B-880B-42B53AAF1A46}"/>
   </bookViews>
   <sheets>
     <sheet name="CalibrationDataset" sheetId="1" r:id="rId1"/>
     <sheet name="WebCalculator" sheetId="2" r:id="rId2"/>
+    <sheet name="LowCO2" sheetId="3" r:id="rId3"/>
+    <sheet name="LowCO2_1100" sheetId="4" r:id="rId4"/>
+    <sheet name="Com2_1100" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="48">
   <si>
     <t>SiO2</t>
   </si>
@@ -198,6 +201,21 @@
   <si>
     <t>Check</t>
   </si>
+  <si>
+    <t>NoH2O</t>
+  </si>
+  <si>
+    <t>H2O_05</t>
+  </si>
+  <si>
+    <t>H2O_1</t>
+  </si>
+  <si>
+    <t>CO2(ppm)</t>
+  </si>
+  <si>
+    <t>H2O_15</t>
+  </si>
 </sst>
 </file>
 
@@ -206,7 +224,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -285,8 +303,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,6 +332,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,7 +426,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -477,73 +531,35 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{348349D5-98FE-994A-AF80-9DD7FF83575F}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{69E6EB0F-0B83-4213-A1E6-38BDCA3C11E3}"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -14566,12 +14582,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14583,10 +14599,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45DEC173-D4FD-4CCA-BD59-BCB6A4A6170A}">
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="Q38" sqref="Q38"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -17700,7 +17716,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="U1:W1">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="between">
       <formula>50</formula>
       <formula>200</formula>
     </cfRule>
@@ -17708,4 +17724,5801 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1BB843-A0B7-4CDA-951F-2A6F828A31F3}">
+  <dimension ref="A1:T33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="16" max="17" width="8.796875" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="52">
+        <v>49.46</v>
+      </c>
+      <c r="C2" s="52">
+        <v>1.58</v>
+      </c>
+      <c r="D2" s="52">
+        <v>14.32</v>
+      </c>
+      <c r="E2" s="52">
+        <v>0</v>
+      </c>
+      <c r="F2" s="52">
+        <v>0</v>
+      </c>
+      <c r="G2" s="52">
+        <v>11.24</v>
+      </c>
+      <c r="H2" s="52">
+        <v>0</v>
+      </c>
+      <c r="I2" s="52">
+        <v>7.11</v>
+      </c>
+      <c r="J2" s="52">
+        <v>0</v>
+      </c>
+      <c r="K2" s="52">
+        <v>0</v>
+      </c>
+      <c r="L2" s="52">
+        <v>12.25</v>
+      </c>
+      <c r="M2" s="52">
+        <v>2.92</v>
+      </c>
+      <c r="N2" s="52">
+        <v>2</v>
+      </c>
+      <c r="O2" s="52">
+        <v>0</v>
+      </c>
+      <c r="P2" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="52">
+        <f>T2/10000</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="52">
+        <v>0</v>
+      </c>
+      <c r="S2" s="52">
+        <v>1200</v>
+      </c>
+      <c r="T2" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="52">
+        <v>49.46</v>
+      </c>
+      <c r="C3" s="52">
+        <v>1.58</v>
+      </c>
+      <c r="D3" s="52">
+        <v>14.32</v>
+      </c>
+      <c r="E3" s="52">
+        <v>0</v>
+      </c>
+      <c r="F3" s="52">
+        <v>0</v>
+      </c>
+      <c r="G3" s="52">
+        <v>11.24</v>
+      </c>
+      <c r="H3" s="52">
+        <v>0</v>
+      </c>
+      <c r="I3" s="52">
+        <v>7.11</v>
+      </c>
+      <c r="J3" s="52">
+        <v>0</v>
+      </c>
+      <c r="K3" s="52">
+        <v>0</v>
+      </c>
+      <c r="L3" s="52">
+        <v>12.25</v>
+      </c>
+      <c r="M3" s="52">
+        <v>2.92</v>
+      </c>
+      <c r="N3" s="52">
+        <v>2</v>
+      </c>
+      <c r="O3" s="52">
+        <v>0</v>
+      </c>
+      <c r="P3" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="52">
+        <f t="shared" ref="Q3:Q25" si="0">T3/10000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="R3" s="53">
+        <v>14.08</v>
+      </c>
+      <c r="S3" s="52">
+        <v>1200</v>
+      </c>
+      <c r="T3" s="52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="52">
+        <v>49.46</v>
+      </c>
+      <c r="C4" s="52">
+        <v>1.58</v>
+      </c>
+      <c r="D4" s="52">
+        <v>14.32</v>
+      </c>
+      <c r="E4" s="52">
+        <v>0</v>
+      </c>
+      <c r="F4" s="52">
+        <v>0</v>
+      </c>
+      <c r="G4" s="52">
+        <v>11.24</v>
+      </c>
+      <c r="H4" s="52">
+        <v>0</v>
+      </c>
+      <c r="I4" s="52">
+        <v>7.11</v>
+      </c>
+      <c r="J4" s="52">
+        <v>0</v>
+      </c>
+      <c r="K4" s="52">
+        <v>0</v>
+      </c>
+      <c r="L4" s="52">
+        <v>12.25</v>
+      </c>
+      <c r="M4" s="52">
+        <v>2.92</v>
+      </c>
+      <c r="N4" s="52">
+        <v>2</v>
+      </c>
+      <c r="O4" s="52">
+        <v>0</v>
+      </c>
+      <c r="P4" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="52">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R4" s="52">
+        <v>42.15</v>
+      </c>
+      <c r="S4" s="52">
+        <v>1200</v>
+      </c>
+      <c r="T4" s="52">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="52">
+        <v>49.46</v>
+      </c>
+      <c r="C5" s="52">
+        <v>1.58</v>
+      </c>
+      <c r="D5" s="52">
+        <v>14.32</v>
+      </c>
+      <c r="E5" s="52">
+        <v>0</v>
+      </c>
+      <c r="F5" s="52">
+        <v>0</v>
+      </c>
+      <c r="G5" s="52">
+        <v>11.24</v>
+      </c>
+      <c r="H5" s="52">
+        <v>0</v>
+      </c>
+      <c r="I5" s="52">
+        <v>7.11</v>
+      </c>
+      <c r="J5" s="52">
+        <v>0</v>
+      </c>
+      <c r="K5" s="52">
+        <v>0</v>
+      </c>
+      <c r="L5" s="52">
+        <v>12.25</v>
+      </c>
+      <c r="M5" s="52">
+        <v>2.92</v>
+      </c>
+      <c r="N5" s="52">
+        <v>2</v>
+      </c>
+      <c r="O5" s="52">
+        <v>0</v>
+      </c>
+      <c r="P5" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="52">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R5" s="53">
+        <v>70.09</v>
+      </c>
+      <c r="S5" s="52">
+        <v>1200</v>
+      </c>
+      <c r="T5" s="52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="52">
+        <v>49.46</v>
+      </c>
+      <c r="C6" s="52">
+        <v>1.58</v>
+      </c>
+      <c r="D6" s="52">
+        <v>14.32</v>
+      </c>
+      <c r="E6" s="52">
+        <v>0</v>
+      </c>
+      <c r="F6" s="52">
+        <v>0</v>
+      </c>
+      <c r="G6" s="52">
+        <v>11.24</v>
+      </c>
+      <c r="H6" s="52">
+        <v>0</v>
+      </c>
+      <c r="I6" s="52">
+        <v>7.11</v>
+      </c>
+      <c r="J6" s="52">
+        <v>0</v>
+      </c>
+      <c r="K6" s="52">
+        <v>0</v>
+      </c>
+      <c r="L6" s="52">
+        <v>12.25</v>
+      </c>
+      <c r="M6" s="52">
+        <v>2.92</v>
+      </c>
+      <c r="N6" s="52">
+        <v>2</v>
+      </c>
+      <c r="O6" s="52">
+        <v>0</v>
+      </c>
+      <c r="P6" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="52">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="R6" s="53">
+        <v>139</v>
+      </c>
+      <c r="S6" s="52">
+        <v>1200</v>
+      </c>
+      <c r="T6" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="52">
+        <v>49.46</v>
+      </c>
+      <c r="C7" s="52">
+        <v>1.58</v>
+      </c>
+      <c r="D7" s="52">
+        <v>14.32</v>
+      </c>
+      <c r="E7" s="52">
+        <v>0</v>
+      </c>
+      <c r="F7" s="52">
+        <v>0</v>
+      </c>
+      <c r="G7" s="52">
+        <v>11.24</v>
+      </c>
+      <c r="H7" s="52">
+        <v>0</v>
+      </c>
+      <c r="I7" s="52">
+        <v>7.11</v>
+      </c>
+      <c r="J7" s="52">
+        <v>0</v>
+      </c>
+      <c r="K7" s="52">
+        <v>0</v>
+      </c>
+      <c r="L7" s="52">
+        <v>12.25</v>
+      </c>
+      <c r="M7" s="52">
+        <v>2.92</v>
+      </c>
+      <c r="N7" s="52">
+        <v>2</v>
+      </c>
+      <c r="O7" s="52">
+        <v>0</v>
+      </c>
+      <c r="P7" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="52">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="R7" s="53">
+        <v>409</v>
+      </c>
+      <c r="S7" s="52">
+        <v>1200</v>
+      </c>
+      <c r="T7" s="52">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="52">
+        <v>49.46</v>
+      </c>
+      <c r="C8" s="52">
+        <v>1.58</v>
+      </c>
+      <c r="D8" s="52">
+        <v>14.32</v>
+      </c>
+      <c r="E8" s="52">
+        <v>0</v>
+      </c>
+      <c r="F8" s="52">
+        <v>0</v>
+      </c>
+      <c r="G8" s="52">
+        <v>11.24</v>
+      </c>
+      <c r="H8" s="52">
+        <v>0</v>
+      </c>
+      <c r="I8" s="52">
+        <v>7.11</v>
+      </c>
+      <c r="J8" s="52">
+        <v>0</v>
+      </c>
+      <c r="K8" s="52">
+        <v>0</v>
+      </c>
+      <c r="L8" s="52">
+        <v>12.25</v>
+      </c>
+      <c r="M8" s="52">
+        <v>2.92</v>
+      </c>
+      <c r="N8" s="52">
+        <v>2</v>
+      </c>
+      <c r="O8" s="52">
+        <v>0</v>
+      </c>
+      <c r="P8" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="52">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="R8" s="53">
+        <v>668</v>
+      </c>
+      <c r="S8" s="52">
+        <v>1200</v>
+      </c>
+      <c r="T8" s="52">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="54">
+        <v>49.46</v>
+      </c>
+      <c r="C9" s="54">
+        <v>1.58</v>
+      </c>
+      <c r="D9" s="54">
+        <v>14.32</v>
+      </c>
+      <c r="E9" s="54">
+        <v>0</v>
+      </c>
+      <c r="F9" s="54">
+        <v>0</v>
+      </c>
+      <c r="G9" s="54">
+        <v>11.24</v>
+      </c>
+      <c r="H9" s="54">
+        <v>0</v>
+      </c>
+      <c r="I9" s="54">
+        <v>7.11</v>
+      </c>
+      <c r="J9" s="54">
+        <v>0</v>
+      </c>
+      <c r="K9" s="54">
+        <v>0</v>
+      </c>
+      <c r="L9" s="54">
+        <v>12.25</v>
+      </c>
+      <c r="M9" s="54">
+        <v>2.92</v>
+      </c>
+      <c r="N9" s="54">
+        <v>2</v>
+      </c>
+      <c r="O9" s="54">
+        <v>0</v>
+      </c>
+      <c r="P9" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="52">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="R9" s="55">
+        <v>1271</v>
+      </c>
+      <c r="S9" s="54">
+        <v>1200</v>
+      </c>
+      <c r="T9" s="54">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="56">
+        <v>49.46</v>
+      </c>
+      <c r="C10" s="56">
+        <v>1.58</v>
+      </c>
+      <c r="D10" s="56">
+        <v>14.32</v>
+      </c>
+      <c r="E10" s="56">
+        <v>0</v>
+      </c>
+      <c r="F10" s="56">
+        <v>0</v>
+      </c>
+      <c r="G10" s="56">
+        <v>11.24</v>
+      </c>
+      <c r="H10" s="56">
+        <v>0</v>
+      </c>
+      <c r="I10" s="56">
+        <v>7.11</v>
+      </c>
+      <c r="J10" s="56">
+        <v>0</v>
+      </c>
+      <c r="K10" s="56">
+        <v>0</v>
+      </c>
+      <c r="L10" s="56">
+        <v>12.25</v>
+      </c>
+      <c r="M10" s="56">
+        <v>2.92</v>
+      </c>
+      <c r="N10" s="56">
+        <v>2</v>
+      </c>
+      <c r="O10" s="56">
+        <v>0</v>
+      </c>
+      <c r="P10" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="57">
+        <v>29.89</v>
+      </c>
+      <c r="S10" s="56">
+        <v>1200</v>
+      </c>
+      <c r="T10" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="56">
+        <v>49.46</v>
+      </c>
+      <c r="C11" s="56">
+        <v>1.58</v>
+      </c>
+      <c r="D11" s="56">
+        <v>14.32</v>
+      </c>
+      <c r="E11" s="56">
+        <v>0</v>
+      </c>
+      <c r="F11" s="56">
+        <v>0</v>
+      </c>
+      <c r="G11" s="56">
+        <v>11.24</v>
+      </c>
+      <c r="H11" s="56">
+        <v>0</v>
+      </c>
+      <c r="I11" s="56">
+        <v>7.11</v>
+      </c>
+      <c r="J11" s="56">
+        <v>0</v>
+      </c>
+      <c r="K11" s="56">
+        <v>0</v>
+      </c>
+      <c r="L11" s="56">
+        <v>12.25</v>
+      </c>
+      <c r="M11" s="56">
+        <v>2.92</v>
+      </c>
+      <c r="N11" s="56">
+        <v>2</v>
+      </c>
+      <c r="O11" s="56">
+        <v>0</v>
+      </c>
+      <c r="P11" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="56">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="R11" s="57">
+        <v>43.23</v>
+      </c>
+      <c r="S11" s="56">
+        <v>1200</v>
+      </c>
+      <c r="T11" s="56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="56">
+        <v>49.46</v>
+      </c>
+      <c r="C12" s="56">
+        <v>1.58</v>
+      </c>
+      <c r="D12" s="56">
+        <v>14.32</v>
+      </c>
+      <c r="E12" s="56">
+        <v>0</v>
+      </c>
+      <c r="F12" s="56">
+        <v>0</v>
+      </c>
+      <c r="G12" s="56">
+        <v>11.24</v>
+      </c>
+      <c r="H12" s="56">
+        <v>0</v>
+      </c>
+      <c r="I12" s="56">
+        <v>7.11</v>
+      </c>
+      <c r="J12" s="56">
+        <v>0</v>
+      </c>
+      <c r="K12" s="56">
+        <v>0</v>
+      </c>
+      <c r="L12" s="56">
+        <v>12.25</v>
+      </c>
+      <c r="M12" s="56">
+        <v>2.92</v>
+      </c>
+      <c r="N12" s="56">
+        <v>2</v>
+      </c>
+      <c r="O12" s="56">
+        <v>0</v>
+      </c>
+      <c r="P12" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="Q12" s="56">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R12" s="57">
+        <v>69.819999999999993</v>
+      </c>
+      <c r="S12" s="56">
+        <v>1200</v>
+      </c>
+      <c r="T12" s="56">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="56">
+        <v>49.46</v>
+      </c>
+      <c r="C13" s="56">
+        <v>1.58</v>
+      </c>
+      <c r="D13" s="56">
+        <v>14.32</v>
+      </c>
+      <c r="E13" s="56">
+        <v>0</v>
+      </c>
+      <c r="F13" s="56">
+        <v>0</v>
+      </c>
+      <c r="G13" s="56">
+        <v>11.24</v>
+      </c>
+      <c r="H13" s="56">
+        <v>0</v>
+      </c>
+      <c r="I13" s="56">
+        <v>7.11</v>
+      </c>
+      <c r="J13" s="56">
+        <v>0</v>
+      </c>
+      <c r="K13" s="56">
+        <v>0</v>
+      </c>
+      <c r="L13" s="56">
+        <v>12.25</v>
+      </c>
+      <c r="M13" s="56">
+        <v>2.92</v>
+      </c>
+      <c r="N13" s="56">
+        <v>2</v>
+      </c>
+      <c r="O13" s="56">
+        <v>0</v>
+      </c>
+      <c r="P13" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" s="56">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R13" s="57">
+        <v>96.3</v>
+      </c>
+      <c r="S13" s="56">
+        <v>1200</v>
+      </c>
+      <c r="T13" s="56">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="56">
+        <v>49.46</v>
+      </c>
+      <c r="C14" s="56">
+        <v>1.58</v>
+      </c>
+      <c r="D14" s="56">
+        <v>14.32</v>
+      </c>
+      <c r="E14" s="56">
+        <v>0</v>
+      </c>
+      <c r="F14" s="56">
+        <v>0</v>
+      </c>
+      <c r="G14" s="56">
+        <v>11.24</v>
+      </c>
+      <c r="H14" s="56">
+        <v>0</v>
+      </c>
+      <c r="I14" s="56">
+        <v>7.11</v>
+      </c>
+      <c r="J14" s="56">
+        <v>0</v>
+      </c>
+      <c r="K14" s="56">
+        <v>0</v>
+      </c>
+      <c r="L14" s="56">
+        <v>12.25</v>
+      </c>
+      <c r="M14" s="56">
+        <v>2.92</v>
+      </c>
+      <c r="N14" s="56">
+        <v>2</v>
+      </c>
+      <c r="O14" s="56">
+        <v>0</v>
+      </c>
+      <c r="P14" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="Q14" s="56">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="R14" s="58">
+        <v>162</v>
+      </c>
+      <c r="S14" s="56">
+        <v>1200</v>
+      </c>
+      <c r="T14" s="56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="56">
+        <v>49.46</v>
+      </c>
+      <c r="C15" s="56">
+        <v>1.58</v>
+      </c>
+      <c r="D15" s="56">
+        <v>14.32</v>
+      </c>
+      <c r="E15" s="56">
+        <v>0</v>
+      </c>
+      <c r="F15" s="56">
+        <v>0</v>
+      </c>
+      <c r="G15" s="56">
+        <v>11.24</v>
+      </c>
+      <c r="H15" s="56">
+        <v>0</v>
+      </c>
+      <c r="I15" s="56">
+        <v>7.11</v>
+      </c>
+      <c r="J15" s="56">
+        <v>0</v>
+      </c>
+      <c r="K15" s="56">
+        <v>0</v>
+      </c>
+      <c r="L15" s="56">
+        <v>12.25</v>
+      </c>
+      <c r="M15" s="56">
+        <v>2.92</v>
+      </c>
+      <c r="N15" s="56">
+        <v>2</v>
+      </c>
+      <c r="O15" s="56">
+        <v>0</v>
+      </c>
+      <c r="P15" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="Q15" s="56">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="R15" s="57">
+        <v>418</v>
+      </c>
+      <c r="S15" s="56">
+        <v>1200</v>
+      </c>
+      <c r="T15" s="56">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="56">
+        <v>49.46</v>
+      </c>
+      <c r="C16" s="56">
+        <v>1.58</v>
+      </c>
+      <c r="D16" s="56">
+        <v>14.32</v>
+      </c>
+      <c r="E16" s="56">
+        <v>0</v>
+      </c>
+      <c r="F16" s="56">
+        <v>0</v>
+      </c>
+      <c r="G16" s="56">
+        <v>11.24</v>
+      </c>
+      <c r="H16" s="56">
+        <v>0</v>
+      </c>
+      <c r="I16" s="56">
+        <v>7.11</v>
+      </c>
+      <c r="J16" s="56">
+        <v>0</v>
+      </c>
+      <c r="K16" s="56">
+        <v>0</v>
+      </c>
+      <c r="L16" s="56">
+        <v>12.25</v>
+      </c>
+      <c r="M16" s="56">
+        <v>2.92</v>
+      </c>
+      <c r="N16" s="56">
+        <v>2</v>
+      </c>
+      <c r="O16" s="56">
+        <v>0</v>
+      </c>
+      <c r="P16" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="Q16" s="56">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="R16" s="57">
+        <v>664</v>
+      </c>
+      <c r="S16" s="56">
+        <v>1200</v>
+      </c>
+      <c r="T16" s="56">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="59">
+        <v>49.46</v>
+      </c>
+      <c r="C17" s="59">
+        <v>1.58</v>
+      </c>
+      <c r="D17" s="59">
+        <v>14.32</v>
+      </c>
+      <c r="E17" s="59">
+        <v>0</v>
+      </c>
+      <c r="F17" s="59">
+        <v>0</v>
+      </c>
+      <c r="G17" s="59">
+        <v>11.24</v>
+      </c>
+      <c r="H17" s="59">
+        <v>0</v>
+      </c>
+      <c r="I17" s="59">
+        <v>7.11</v>
+      </c>
+      <c r="J17" s="59">
+        <v>0</v>
+      </c>
+      <c r="K17" s="59">
+        <v>0</v>
+      </c>
+      <c r="L17" s="59">
+        <v>12.25</v>
+      </c>
+      <c r="M17" s="59">
+        <v>2.92</v>
+      </c>
+      <c r="N17" s="59">
+        <v>2</v>
+      </c>
+      <c r="O17" s="59">
+        <v>0</v>
+      </c>
+      <c r="P17" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="Q17" s="56">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="R17" s="60">
+        <v>1240</v>
+      </c>
+      <c r="S17" s="59">
+        <v>1200</v>
+      </c>
+      <c r="T17" s="59">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="62">
+        <v>49.46</v>
+      </c>
+      <c r="C18" s="62">
+        <v>1.58</v>
+      </c>
+      <c r="D18" s="62">
+        <v>14.32</v>
+      </c>
+      <c r="E18" s="62">
+        <v>0</v>
+      </c>
+      <c r="F18" s="62">
+        <v>0</v>
+      </c>
+      <c r="G18" s="62">
+        <v>11.24</v>
+      </c>
+      <c r="H18" s="62">
+        <v>0</v>
+      </c>
+      <c r="I18" s="62">
+        <v>7.11</v>
+      </c>
+      <c r="J18" s="62">
+        <v>0</v>
+      </c>
+      <c r="K18" s="62">
+        <v>0</v>
+      </c>
+      <c r="L18" s="62">
+        <v>12.25</v>
+      </c>
+      <c r="M18" s="62">
+        <v>2.92</v>
+      </c>
+      <c r="N18" s="62">
+        <v>2</v>
+      </c>
+      <c r="O18" s="62">
+        <v>0</v>
+      </c>
+      <c r="P18" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="63">
+        <v>106</v>
+      </c>
+      <c r="S18" s="62">
+        <v>1200</v>
+      </c>
+      <c r="T18" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="62">
+        <v>49.46</v>
+      </c>
+      <c r="C19" s="62">
+        <v>1.58</v>
+      </c>
+      <c r="D19" s="62">
+        <v>14.32</v>
+      </c>
+      <c r="E19" s="62">
+        <v>0</v>
+      </c>
+      <c r="F19" s="62">
+        <v>0</v>
+      </c>
+      <c r="G19" s="62">
+        <v>11.24</v>
+      </c>
+      <c r="H19" s="62">
+        <v>0</v>
+      </c>
+      <c r="I19" s="62">
+        <v>7.11</v>
+      </c>
+      <c r="J19" s="62">
+        <v>0</v>
+      </c>
+      <c r="K19" s="62">
+        <v>0</v>
+      </c>
+      <c r="L19" s="62">
+        <v>12.25</v>
+      </c>
+      <c r="M19" s="62">
+        <v>2.92</v>
+      </c>
+      <c r="N19" s="62">
+        <v>2</v>
+      </c>
+      <c r="O19" s="62">
+        <v>0</v>
+      </c>
+      <c r="P19" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="62">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="R19" s="63">
+        <v>119</v>
+      </c>
+      <c r="S19" s="62">
+        <v>1200</v>
+      </c>
+      <c r="T19" s="62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="62">
+        <v>49.46</v>
+      </c>
+      <c r="C20" s="62">
+        <v>1.58</v>
+      </c>
+      <c r="D20" s="62">
+        <v>14.32</v>
+      </c>
+      <c r="E20" s="62">
+        <v>0</v>
+      </c>
+      <c r="F20" s="62">
+        <v>0</v>
+      </c>
+      <c r="G20" s="62">
+        <v>11.24</v>
+      </c>
+      <c r="H20" s="62">
+        <v>0</v>
+      </c>
+      <c r="I20" s="62">
+        <v>7.11</v>
+      </c>
+      <c r="J20" s="62">
+        <v>0</v>
+      </c>
+      <c r="K20" s="62">
+        <v>0</v>
+      </c>
+      <c r="L20" s="62">
+        <v>12.25</v>
+      </c>
+      <c r="M20" s="62">
+        <v>2.92</v>
+      </c>
+      <c r="N20" s="62">
+        <v>2</v>
+      </c>
+      <c r="O20" s="62">
+        <v>0</v>
+      </c>
+      <c r="P20" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="62">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R20" s="63">
+        <v>144</v>
+      </c>
+      <c r="S20" s="62">
+        <v>1200</v>
+      </c>
+      <c r="T20" s="62">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="62">
+        <v>49.46</v>
+      </c>
+      <c r="C21" s="62">
+        <v>1.58</v>
+      </c>
+      <c r="D21" s="62">
+        <v>14.32</v>
+      </c>
+      <c r="E21" s="62">
+        <v>0</v>
+      </c>
+      <c r="F21" s="62">
+        <v>0</v>
+      </c>
+      <c r="G21" s="62">
+        <v>11.24</v>
+      </c>
+      <c r="H21" s="62">
+        <v>0</v>
+      </c>
+      <c r="I21" s="62">
+        <v>7.11</v>
+      </c>
+      <c r="J21" s="62">
+        <v>0</v>
+      </c>
+      <c r="K21" s="62">
+        <v>0</v>
+      </c>
+      <c r="L21" s="62">
+        <v>12.25</v>
+      </c>
+      <c r="M21" s="62">
+        <v>2.92</v>
+      </c>
+      <c r="N21" s="62">
+        <v>2</v>
+      </c>
+      <c r="O21" s="62">
+        <v>0</v>
+      </c>
+      <c r="P21" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="62">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R21" s="63">
+        <v>169</v>
+      </c>
+      <c r="S21" s="62">
+        <v>1200</v>
+      </c>
+      <c r="T21" s="62">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="62">
+        <v>49.46</v>
+      </c>
+      <c r="C22" s="62">
+        <v>1.58</v>
+      </c>
+      <c r="D22" s="62">
+        <v>14.32</v>
+      </c>
+      <c r="E22" s="62">
+        <v>0</v>
+      </c>
+      <c r="F22" s="62">
+        <v>0</v>
+      </c>
+      <c r="G22" s="62">
+        <v>11.24</v>
+      </c>
+      <c r="H22" s="62">
+        <v>0</v>
+      </c>
+      <c r="I22" s="62">
+        <v>7.11</v>
+      </c>
+      <c r="J22" s="62">
+        <v>0</v>
+      </c>
+      <c r="K22" s="62">
+        <v>0</v>
+      </c>
+      <c r="L22" s="62">
+        <v>12.25</v>
+      </c>
+      <c r="M22" s="62">
+        <v>2.92</v>
+      </c>
+      <c r="N22" s="62">
+        <v>2</v>
+      </c>
+      <c r="O22" s="62">
+        <v>0</v>
+      </c>
+      <c r="P22" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="62">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="R22" s="63">
+        <v>231</v>
+      </c>
+      <c r="S22" s="62">
+        <v>1200</v>
+      </c>
+      <c r="T22" s="62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="62">
+        <v>49.46</v>
+      </c>
+      <c r="C23" s="62">
+        <v>1.58</v>
+      </c>
+      <c r="D23" s="62">
+        <v>14.32</v>
+      </c>
+      <c r="E23" s="62">
+        <v>0</v>
+      </c>
+      <c r="F23" s="62">
+        <v>0</v>
+      </c>
+      <c r="G23" s="62">
+        <v>11.24</v>
+      </c>
+      <c r="H23" s="62">
+        <v>0</v>
+      </c>
+      <c r="I23" s="62">
+        <v>7.11</v>
+      </c>
+      <c r="J23" s="62">
+        <v>0</v>
+      </c>
+      <c r="K23" s="62">
+        <v>0</v>
+      </c>
+      <c r="L23" s="62">
+        <v>12.25</v>
+      </c>
+      <c r="M23" s="62">
+        <v>2.92</v>
+      </c>
+      <c r="N23" s="62">
+        <v>2</v>
+      </c>
+      <c r="O23" s="62">
+        <v>0</v>
+      </c>
+      <c r="P23" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="62">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="R23" s="63">
+        <v>473</v>
+      </c>
+      <c r="S23" s="62">
+        <v>1200</v>
+      </c>
+      <c r="T23" s="62">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="62">
+        <v>49.46</v>
+      </c>
+      <c r="C24" s="62">
+        <v>1.58</v>
+      </c>
+      <c r="D24" s="62">
+        <v>14.32</v>
+      </c>
+      <c r="E24" s="62">
+        <v>0</v>
+      </c>
+      <c r="F24" s="62">
+        <v>0</v>
+      </c>
+      <c r="G24" s="62">
+        <v>11.24</v>
+      </c>
+      <c r="H24" s="62">
+        <v>0</v>
+      </c>
+      <c r="I24" s="62">
+        <v>7.11</v>
+      </c>
+      <c r="J24" s="62">
+        <v>0</v>
+      </c>
+      <c r="K24" s="62">
+        <v>0</v>
+      </c>
+      <c r="L24" s="62">
+        <v>12.25</v>
+      </c>
+      <c r="M24" s="62">
+        <v>2.92</v>
+      </c>
+      <c r="N24" s="62">
+        <v>2</v>
+      </c>
+      <c r="O24" s="62">
+        <v>0</v>
+      </c>
+      <c r="P24" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="62">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="R24" s="63">
+        <v>706</v>
+      </c>
+      <c r="S24" s="62">
+        <v>1200</v>
+      </c>
+      <c r="T24" s="62">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="64">
+        <v>49.46</v>
+      </c>
+      <c r="C25" s="64">
+        <v>1.58</v>
+      </c>
+      <c r="D25" s="64">
+        <v>14.32</v>
+      </c>
+      <c r="E25" s="64">
+        <v>0</v>
+      </c>
+      <c r="F25" s="64">
+        <v>0</v>
+      </c>
+      <c r="G25" s="64">
+        <v>11.24</v>
+      </c>
+      <c r="H25" s="64">
+        <v>0</v>
+      </c>
+      <c r="I25" s="64">
+        <v>7.11</v>
+      </c>
+      <c r="J25" s="64">
+        <v>0</v>
+      </c>
+      <c r="K25" s="64">
+        <v>0</v>
+      </c>
+      <c r="L25" s="64">
+        <v>12.25</v>
+      </c>
+      <c r="M25" s="64">
+        <v>2.92</v>
+      </c>
+      <c r="N25" s="64">
+        <v>2</v>
+      </c>
+      <c r="O25" s="64">
+        <v>0</v>
+      </c>
+      <c r="P25" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="62">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="R25" s="63">
+        <v>1253</v>
+      </c>
+      <c r="S25" s="64">
+        <v>1200</v>
+      </c>
+      <c r="T25" s="64">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="66">
+        <v>49.46</v>
+      </c>
+      <c r="C26" s="66">
+        <v>1.58</v>
+      </c>
+      <c r="D26" s="66">
+        <v>14.32</v>
+      </c>
+      <c r="E26" s="66">
+        <v>0</v>
+      </c>
+      <c r="F26" s="66">
+        <v>0</v>
+      </c>
+      <c r="G26" s="66">
+        <v>11.24</v>
+      </c>
+      <c r="H26" s="66">
+        <v>0</v>
+      </c>
+      <c r="I26" s="66">
+        <v>7.11</v>
+      </c>
+      <c r="J26" s="66">
+        <v>0</v>
+      </c>
+      <c r="K26" s="66">
+        <v>0</v>
+      </c>
+      <c r="L26" s="66">
+        <v>12.25</v>
+      </c>
+      <c r="M26" s="66">
+        <v>2.92</v>
+      </c>
+      <c r="N26" s="66">
+        <v>2</v>
+      </c>
+      <c r="O26" s="66">
+        <v>0</v>
+      </c>
+      <c r="P26" s="66">
+        <v>1.5</v>
+      </c>
+      <c r="Q26" s="66">
+        <f t="shared" ref="Q26:Q33" si="1">T26/10000</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="31">
+        <v>218</v>
+      </c>
+      <c r="S26" s="66">
+        <v>1200</v>
+      </c>
+      <c r="T26" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="66">
+        <v>49.46</v>
+      </c>
+      <c r="C27" s="66">
+        <v>1.58</v>
+      </c>
+      <c r="D27" s="66">
+        <v>14.32</v>
+      </c>
+      <c r="E27" s="66">
+        <v>0</v>
+      </c>
+      <c r="F27" s="66">
+        <v>0</v>
+      </c>
+      <c r="G27" s="66">
+        <v>11.24</v>
+      </c>
+      <c r="H27" s="66">
+        <v>0</v>
+      </c>
+      <c r="I27" s="66">
+        <v>7.11</v>
+      </c>
+      <c r="J27" s="66">
+        <v>0</v>
+      </c>
+      <c r="K27" s="66">
+        <v>0</v>
+      </c>
+      <c r="L27" s="66">
+        <v>12.25</v>
+      </c>
+      <c r="M27" s="66">
+        <v>2.92</v>
+      </c>
+      <c r="N27" s="66">
+        <v>2</v>
+      </c>
+      <c r="O27" s="66">
+        <v>0</v>
+      </c>
+      <c r="P27" s="66">
+        <v>1.5</v>
+      </c>
+      <c r="Q27" s="66">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="R27" s="31">
+        <v>229</v>
+      </c>
+      <c r="S27" s="66">
+        <v>1200</v>
+      </c>
+      <c r="T27" s="66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="66">
+        <v>49.46</v>
+      </c>
+      <c r="C28" s="66">
+        <v>1.58</v>
+      </c>
+      <c r="D28" s="66">
+        <v>14.32</v>
+      </c>
+      <c r="E28" s="66">
+        <v>0</v>
+      </c>
+      <c r="F28" s="66">
+        <v>0</v>
+      </c>
+      <c r="G28" s="66">
+        <v>11.24</v>
+      </c>
+      <c r="H28" s="66">
+        <v>0</v>
+      </c>
+      <c r="I28" s="66">
+        <v>7.11</v>
+      </c>
+      <c r="J28" s="66">
+        <v>0</v>
+      </c>
+      <c r="K28" s="66">
+        <v>0</v>
+      </c>
+      <c r="L28" s="66">
+        <v>12.25</v>
+      </c>
+      <c r="M28" s="66">
+        <v>2.92</v>
+      </c>
+      <c r="N28" s="66">
+        <v>2</v>
+      </c>
+      <c r="O28" s="66">
+        <v>0</v>
+      </c>
+      <c r="P28" s="66">
+        <v>1.5</v>
+      </c>
+      <c r="Q28" s="66">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R28" s="31">
+        <v>253</v>
+      </c>
+      <c r="S28" s="66">
+        <v>1200</v>
+      </c>
+      <c r="T28" s="66">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="66">
+        <v>49.46</v>
+      </c>
+      <c r="C29" s="66">
+        <v>1.58</v>
+      </c>
+      <c r="D29" s="66">
+        <v>14.32</v>
+      </c>
+      <c r="E29" s="66">
+        <v>0</v>
+      </c>
+      <c r="F29" s="66">
+        <v>0</v>
+      </c>
+      <c r="G29" s="66">
+        <v>11.24</v>
+      </c>
+      <c r="H29" s="66">
+        <v>0</v>
+      </c>
+      <c r="I29" s="66">
+        <v>7.11</v>
+      </c>
+      <c r="J29" s="66">
+        <v>0</v>
+      </c>
+      <c r="K29" s="66">
+        <v>0</v>
+      </c>
+      <c r="L29" s="66">
+        <v>12.25</v>
+      </c>
+      <c r="M29" s="66">
+        <v>2.92</v>
+      </c>
+      <c r="N29" s="66">
+        <v>2</v>
+      </c>
+      <c r="O29" s="66">
+        <v>0</v>
+      </c>
+      <c r="P29" s="66">
+        <v>1.5</v>
+      </c>
+      <c r="Q29" s="66">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R29" s="31">
+        <v>276</v>
+      </c>
+      <c r="S29" s="66">
+        <v>1200</v>
+      </c>
+      <c r="T29" s="66">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="66">
+        <v>49.46</v>
+      </c>
+      <c r="C30" s="66">
+        <v>1.58</v>
+      </c>
+      <c r="D30" s="66">
+        <v>14.32</v>
+      </c>
+      <c r="E30" s="66">
+        <v>0</v>
+      </c>
+      <c r="F30" s="66">
+        <v>0</v>
+      </c>
+      <c r="G30" s="66">
+        <v>11.24</v>
+      </c>
+      <c r="H30" s="66">
+        <v>0</v>
+      </c>
+      <c r="I30" s="66">
+        <v>7.11</v>
+      </c>
+      <c r="J30" s="66">
+        <v>0</v>
+      </c>
+      <c r="K30" s="66">
+        <v>0</v>
+      </c>
+      <c r="L30" s="66">
+        <v>12.25</v>
+      </c>
+      <c r="M30" s="66">
+        <v>2.92</v>
+      </c>
+      <c r="N30" s="66">
+        <v>2</v>
+      </c>
+      <c r="O30" s="66">
+        <v>0</v>
+      </c>
+      <c r="P30" s="66">
+        <v>1.5</v>
+      </c>
+      <c r="Q30" s="66">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="R30" s="31">
+        <v>335</v>
+      </c>
+      <c r="S30" s="66">
+        <v>1200</v>
+      </c>
+      <c r="T30" s="66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="66">
+        <v>49.46</v>
+      </c>
+      <c r="C31" s="66">
+        <v>1.58</v>
+      </c>
+      <c r="D31" s="66">
+        <v>14.32</v>
+      </c>
+      <c r="E31" s="66">
+        <v>0</v>
+      </c>
+      <c r="F31" s="66">
+        <v>0</v>
+      </c>
+      <c r="G31" s="66">
+        <v>11.24</v>
+      </c>
+      <c r="H31" s="66">
+        <v>0</v>
+      </c>
+      <c r="I31" s="66">
+        <v>7.11</v>
+      </c>
+      <c r="J31" s="66">
+        <v>0</v>
+      </c>
+      <c r="K31" s="66">
+        <v>0</v>
+      </c>
+      <c r="L31" s="66">
+        <v>12.25</v>
+      </c>
+      <c r="M31" s="66">
+        <v>2.92</v>
+      </c>
+      <c r="N31" s="66">
+        <v>2</v>
+      </c>
+      <c r="O31" s="66">
+        <v>0</v>
+      </c>
+      <c r="P31" s="66">
+        <v>1.5</v>
+      </c>
+      <c r="Q31" s="66">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="R31" s="31">
+        <v>562</v>
+      </c>
+      <c r="S31" s="66">
+        <v>1200</v>
+      </c>
+      <c r="T31" s="66">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="66">
+        <v>49.46</v>
+      </c>
+      <c r="C32" s="66">
+        <v>1.58</v>
+      </c>
+      <c r="D32" s="66">
+        <v>14.32</v>
+      </c>
+      <c r="E32" s="66">
+        <v>0</v>
+      </c>
+      <c r="F32" s="66">
+        <v>0</v>
+      </c>
+      <c r="G32" s="66">
+        <v>11.24</v>
+      </c>
+      <c r="H32" s="66">
+        <v>0</v>
+      </c>
+      <c r="I32" s="66">
+        <v>7.11</v>
+      </c>
+      <c r="J32" s="66">
+        <v>0</v>
+      </c>
+      <c r="K32" s="66">
+        <v>0</v>
+      </c>
+      <c r="L32" s="66">
+        <v>12.25</v>
+      </c>
+      <c r="M32" s="66">
+        <v>2.92</v>
+      </c>
+      <c r="N32" s="66">
+        <v>2</v>
+      </c>
+      <c r="O32" s="66">
+        <v>0</v>
+      </c>
+      <c r="P32" s="66">
+        <v>1.5</v>
+      </c>
+      <c r="Q32" s="66">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="R32" s="31">
+        <v>782</v>
+      </c>
+      <c r="S32" s="66">
+        <v>1200</v>
+      </c>
+      <c r="T32" s="66">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="67">
+        <v>49.46</v>
+      </c>
+      <c r="C33" s="67">
+        <v>1.58</v>
+      </c>
+      <c r="D33" s="67">
+        <v>14.32</v>
+      </c>
+      <c r="E33" s="67">
+        <v>0</v>
+      </c>
+      <c r="F33" s="67">
+        <v>0</v>
+      </c>
+      <c r="G33" s="67">
+        <v>11.24</v>
+      </c>
+      <c r="H33" s="67">
+        <v>0</v>
+      </c>
+      <c r="I33" s="67">
+        <v>7.11</v>
+      </c>
+      <c r="J33" s="67">
+        <v>0</v>
+      </c>
+      <c r="K33" s="67">
+        <v>0</v>
+      </c>
+      <c r="L33" s="67">
+        <v>12.25</v>
+      </c>
+      <c r="M33" s="67">
+        <v>2.92</v>
+      </c>
+      <c r="N33" s="67">
+        <v>2</v>
+      </c>
+      <c r="O33" s="67">
+        <v>0</v>
+      </c>
+      <c r="P33" s="66">
+        <v>1.5</v>
+      </c>
+      <c r="Q33" s="66">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="R33" s="31">
+        <v>1300</v>
+      </c>
+      <c r="S33" s="67">
+        <v>1200</v>
+      </c>
+      <c r="T33" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5FD6C8-6E9D-45B0-8183-594F5F638170}">
+  <dimension ref="A1:T33"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="15" width="8.796875" style="2"/>
+    <col min="16" max="17" width="8.796875" style="51"/>
+    <col min="18" max="16384" width="8.796875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="52">
+        <v>49.46</v>
+      </c>
+      <c r="C2" s="52">
+        <v>1.58</v>
+      </c>
+      <c r="D2" s="52">
+        <v>14.32</v>
+      </c>
+      <c r="E2" s="52">
+        <v>0</v>
+      </c>
+      <c r="F2" s="52">
+        <v>0</v>
+      </c>
+      <c r="G2" s="52">
+        <v>11.24</v>
+      </c>
+      <c r="H2" s="52">
+        <v>0</v>
+      </c>
+      <c r="I2" s="52">
+        <v>7.11</v>
+      </c>
+      <c r="J2" s="52">
+        <v>0</v>
+      </c>
+      <c r="K2" s="52">
+        <v>0</v>
+      </c>
+      <c r="L2" s="52">
+        <v>12.25</v>
+      </c>
+      <c r="M2" s="52">
+        <v>2.92</v>
+      </c>
+      <c r="N2" s="52">
+        <v>2</v>
+      </c>
+      <c r="O2" s="52">
+        <v>0</v>
+      </c>
+      <c r="P2" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="52">
+        <f>T2/10000</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="52">
+        <v>0</v>
+      </c>
+      <c r="S2" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T2" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="52">
+        <v>49.46</v>
+      </c>
+      <c r="C3" s="52">
+        <v>1.58</v>
+      </c>
+      <c r="D3" s="52">
+        <v>14.32</v>
+      </c>
+      <c r="E3" s="52">
+        <v>0</v>
+      </c>
+      <c r="F3" s="52">
+        <v>0</v>
+      </c>
+      <c r="G3" s="52">
+        <v>11.24</v>
+      </c>
+      <c r="H3" s="52">
+        <v>0</v>
+      </c>
+      <c r="I3" s="52">
+        <v>7.11</v>
+      </c>
+      <c r="J3" s="52">
+        <v>0</v>
+      </c>
+      <c r="K3" s="52">
+        <v>0</v>
+      </c>
+      <c r="L3" s="52">
+        <v>12.25</v>
+      </c>
+      <c r="M3" s="52">
+        <v>2.92</v>
+      </c>
+      <c r="N3" s="52">
+        <v>2</v>
+      </c>
+      <c r="O3" s="52">
+        <v>0</v>
+      </c>
+      <c r="P3" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="52">
+        <f t="shared" ref="Q3:Q33" si="0">T3/10000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="R3" s="31">
+        <v>14.08</v>
+      </c>
+      <c r="S3" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T3" s="52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="52">
+        <v>49.46</v>
+      </c>
+      <c r="C4" s="52">
+        <v>1.58</v>
+      </c>
+      <c r="D4" s="52">
+        <v>14.32</v>
+      </c>
+      <c r="E4" s="52">
+        <v>0</v>
+      </c>
+      <c r="F4" s="52">
+        <v>0</v>
+      </c>
+      <c r="G4" s="52">
+        <v>11.24</v>
+      </c>
+      <c r="H4" s="52">
+        <v>0</v>
+      </c>
+      <c r="I4" s="52">
+        <v>7.11</v>
+      </c>
+      <c r="J4" s="52">
+        <v>0</v>
+      </c>
+      <c r="K4" s="52">
+        <v>0</v>
+      </c>
+      <c r="L4" s="52">
+        <v>12.25</v>
+      </c>
+      <c r="M4" s="52">
+        <v>2.92</v>
+      </c>
+      <c r="N4" s="52">
+        <v>2</v>
+      </c>
+      <c r="O4" s="52">
+        <v>0</v>
+      </c>
+      <c r="P4" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="52">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R4" s="31">
+        <v>42.14</v>
+      </c>
+      <c r="S4" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T4" s="52">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="52">
+        <v>49.46</v>
+      </c>
+      <c r="C5" s="52">
+        <v>1.58</v>
+      </c>
+      <c r="D5" s="52">
+        <v>14.32</v>
+      </c>
+      <c r="E5" s="52">
+        <v>0</v>
+      </c>
+      <c r="F5" s="52">
+        <v>0</v>
+      </c>
+      <c r="G5" s="52">
+        <v>11.24</v>
+      </c>
+      <c r="H5" s="52">
+        <v>0</v>
+      </c>
+      <c r="I5" s="52">
+        <v>7.11</v>
+      </c>
+      <c r="J5" s="52">
+        <v>0</v>
+      </c>
+      <c r="K5" s="52">
+        <v>0</v>
+      </c>
+      <c r="L5" s="52">
+        <v>12.25</v>
+      </c>
+      <c r="M5" s="52">
+        <v>2.92</v>
+      </c>
+      <c r="N5" s="52">
+        <v>2</v>
+      </c>
+      <c r="O5" s="52">
+        <v>0</v>
+      </c>
+      <c r="P5" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="52">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R5" s="31">
+        <v>70.06</v>
+      </c>
+      <c r="S5" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T5" s="52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="52">
+        <v>49.46</v>
+      </c>
+      <c r="C6" s="52">
+        <v>1.58</v>
+      </c>
+      <c r="D6" s="52">
+        <v>14.32</v>
+      </c>
+      <c r="E6" s="52">
+        <v>0</v>
+      </c>
+      <c r="F6" s="52">
+        <v>0</v>
+      </c>
+      <c r="G6" s="52">
+        <v>11.24</v>
+      </c>
+      <c r="H6" s="52">
+        <v>0</v>
+      </c>
+      <c r="I6" s="52">
+        <v>7.11</v>
+      </c>
+      <c r="J6" s="52">
+        <v>0</v>
+      </c>
+      <c r="K6" s="52">
+        <v>0</v>
+      </c>
+      <c r="L6" s="52">
+        <v>12.25</v>
+      </c>
+      <c r="M6" s="52">
+        <v>2.92</v>
+      </c>
+      <c r="N6" s="52">
+        <v>2</v>
+      </c>
+      <c r="O6" s="52">
+        <v>0</v>
+      </c>
+      <c r="P6" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="52">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="R6" s="31">
+        <v>139</v>
+      </c>
+      <c r="S6" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T6" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="52">
+        <v>49.46</v>
+      </c>
+      <c r="C7" s="52">
+        <v>1.58</v>
+      </c>
+      <c r="D7" s="52">
+        <v>14.32</v>
+      </c>
+      <c r="E7" s="52">
+        <v>0</v>
+      </c>
+      <c r="F7" s="52">
+        <v>0</v>
+      </c>
+      <c r="G7" s="52">
+        <v>11.24</v>
+      </c>
+      <c r="H7" s="52">
+        <v>0</v>
+      </c>
+      <c r="I7" s="52">
+        <v>7.11</v>
+      </c>
+      <c r="J7" s="52">
+        <v>0</v>
+      </c>
+      <c r="K7" s="52">
+        <v>0</v>
+      </c>
+      <c r="L7" s="52">
+        <v>12.25</v>
+      </c>
+      <c r="M7" s="52">
+        <v>2.92</v>
+      </c>
+      <c r="N7" s="52">
+        <v>2</v>
+      </c>
+      <c r="O7" s="52">
+        <v>0</v>
+      </c>
+      <c r="P7" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="52">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="R7" s="31">
+        <v>408</v>
+      </c>
+      <c r="S7" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T7" s="52">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="52">
+        <v>49.46</v>
+      </c>
+      <c r="C8" s="52">
+        <v>1.58</v>
+      </c>
+      <c r="D8" s="52">
+        <v>14.32</v>
+      </c>
+      <c r="E8" s="52">
+        <v>0</v>
+      </c>
+      <c r="F8" s="52">
+        <v>0</v>
+      </c>
+      <c r="G8" s="52">
+        <v>11.24</v>
+      </c>
+      <c r="H8" s="52">
+        <v>0</v>
+      </c>
+      <c r="I8" s="52">
+        <v>7.11</v>
+      </c>
+      <c r="J8" s="52">
+        <v>0</v>
+      </c>
+      <c r="K8" s="52">
+        <v>0</v>
+      </c>
+      <c r="L8" s="52">
+        <v>12.25</v>
+      </c>
+      <c r="M8" s="52">
+        <v>2.92</v>
+      </c>
+      <c r="N8" s="52">
+        <v>2</v>
+      </c>
+      <c r="O8" s="52">
+        <v>0</v>
+      </c>
+      <c r="P8" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="52">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="R8" s="31">
+        <v>665</v>
+      </c>
+      <c r="S8" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T8" s="52">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="54">
+        <v>49.46</v>
+      </c>
+      <c r="C9" s="54">
+        <v>1.58</v>
+      </c>
+      <c r="D9" s="54">
+        <v>14.32</v>
+      </c>
+      <c r="E9" s="54">
+        <v>0</v>
+      </c>
+      <c r="F9" s="54">
+        <v>0</v>
+      </c>
+      <c r="G9" s="54">
+        <v>11.24</v>
+      </c>
+      <c r="H9" s="54">
+        <v>0</v>
+      </c>
+      <c r="I9" s="54">
+        <v>7.11</v>
+      </c>
+      <c r="J9" s="54">
+        <v>0</v>
+      </c>
+      <c r="K9" s="54">
+        <v>0</v>
+      </c>
+      <c r="L9" s="54">
+        <v>12.25</v>
+      </c>
+      <c r="M9" s="54">
+        <v>2.92</v>
+      </c>
+      <c r="N9" s="54">
+        <v>2</v>
+      </c>
+      <c r="O9" s="54">
+        <v>0</v>
+      </c>
+      <c r="P9" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="52">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="R9" s="31">
+        <v>1263</v>
+      </c>
+      <c r="S9" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T9" s="54">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="56">
+        <v>49.46</v>
+      </c>
+      <c r="C10" s="56">
+        <v>1.58</v>
+      </c>
+      <c r="D10" s="56">
+        <v>14.32</v>
+      </c>
+      <c r="E10" s="56">
+        <v>0</v>
+      </c>
+      <c r="F10" s="56">
+        <v>0</v>
+      </c>
+      <c r="G10" s="56">
+        <v>11.24</v>
+      </c>
+      <c r="H10" s="56">
+        <v>0</v>
+      </c>
+      <c r="I10" s="56">
+        <v>7.11</v>
+      </c>
+      <c r="J10" s="56">
+        <v>0</v>
+      </c>
+      <c r="K10" s="56">
+        <v>0</v>
+      </c>
+      <c r="L10" s="56">
+        <v>12.25</v>
+      </c>
+      <c r="M10" s="56">
+        <v>2.92</v>
+      </c>
+      <c r="N10" s="56">
+        <v>2</v>
+      </c>
+      <c r="O10" s="56">
+        <v>0</v>
+      </c>
+      <c r="P10" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="31">
+        <v>29.89</v>
+      </c>
+      <c r="S10" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T10" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="56">
+        <v>49.46</v>
+      </c>
+      <c r="C11" s="56">
+        <v>1.58</v>
+      </c>
+      <c r="D11" s="56">
+        <v>14.32</v>
+      </c>
+      <c r="E11" s="56">
+        <v>0</v>
+      </c>
+      <c r="F11" s="56">
+        <v>0</v>
+      </c>
+      <c r="G11" s="56">
+        <v>11.24</v>
+      </c>
+      <c r="H11" s="56">
+        <v>0</v>
+      </c>
+      <c r="I11" s="56">
+        <v>7.11</v>
+      </c>
+      <c r="J11" s="56">
+        <v>0</v>
+      </c>
+      <c r="K11" s="56">
+        <v>0</v>
+      </c>
+      <c r="L11" s="56">
+        <v>12.25</v>
+      </c>
+      <c r="M11" s="56">
+        <v>2.92</v>
+      </c>
+      <c r="N11" s="56">
+        <v>2</v>
+      </c>
+      <c r="O11" s="56">
+        <v>0</v>
+      </c>
+      <c r="P11" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="56">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="R11" s="31">
+        <v>43.23</v>
+      </c>
+      <c r="S11" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T11" s="56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="56">
+        <v>49.46</v>
+      </c>
+      <c r="C12" s="56">
+        <v>1.58</v>
+      </c>
+      <c r="D12" s="56">
+        <v>14.32</v>
+      </c>
+      <c r="E12" s="56">
+        <v>0</v>
+      </c>
+      <c r="F12" s="56">
+        <v>0</v>
+      </c>
+      <c r="G12" s="56">
+        <v>11.24</v>
+      </c>
+      <c r="H12" s="56">
+        <v>0</v>
+      </c>
+      <c r="I12" s="56">
+        <v>7.11</v>
+      </c>
+      <c r="J12" s="56">
+        <v>0</v>
+      </c>
+      <c r="K12" s="56">
+        <v>0</v>
+      </c>
+      <c r="L12" s="56">
+        <v>12.25</v>
+      </c>
+      <c r="M12" s="56">
+        <v>2.92</v>
+      </c>
+      <c r="N12" s="56">
+        <v>2</v>
+      </c>
+      <c r="O12" s="56">
+        <v>0</v>
+      </c>
+      <c r="P12" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="Q12" s="56">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R12" s="31">
+        <v>69.81</v>
+      </c>
+      <c r="S12" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T12" s="56">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="56">
+        <v>49.46</v>
+      </c>
+      <c r="C13" s="56">
+        <v>1.58</v>
+      </c>
+      <c r="D13" s="56">
+        <v>14.32</v>
+      </c>
+      <c r="E13" s="56">
+        <v>0</v>
+      </c>
+      <c r="F13" s="56">
+        <v>0</v>
+      </c>
+      <c r="G13" s="56">
+        <v>11.24</v>
+      </c>
+      <c r="H13" s="56">
+        <v>0</v>
+      </c>
+      <c r="I13" s="56">
+        <v>7.11</v>
+      </c>
+      <c r="J13" s="56">
+        <v>0</v>
+      </c>
+      <c r="K13" s="56">
+        <v>0</v>
+      </c>
+      <c r="L13" s="56">
+        <v>12.25</v>
+      </c>
+      <c r="M13" s="56">
+        <v>2.92</v>
+      </c>
+      <c r="N13" s="56">
+        <v>2</v>
+      </c>
+      <c r="O13" s="56">
+        <v>0</v>
+      </c>
+      <c r="P13" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" s="56">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R13" s="33">
+        <v>96.26</v>
+      </c>
+      <c r="S13" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T13" s="56">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="56">
+        <v>49.46</v>
+      </c>
+      <c r="C14" s="56">
+        <v>1.58</v>
+      </c>
+      <c r="D14" s="56">
+        <v>14.32</v>
+      </c>
+      <c r="E14" s="56">
+        <v>0</v>
+      </c>
+      <c r="F14" s="56">
+        <v>0</v>
+      </c>
+      <c r="G14" s="56">
+        <v>11.24</v>
+      </c>
+      <c r="H14" s="56">
+        <v>0</v>
+      </c>
+      <c r="I14" s="56">
+        <v>7.11</v>
+      </c>
+      <c r="J14" s="56">
+        <v>0</v>
+      </c>
+      <c r="K14" s="56">
+        <v>0</v>
+      </c>
+      <c r="L14" s="56">
+        <v>12.25</v>
+      </c>
+      <c r="M14" s="56">
+        <v>2.92</v>
+      </c>
+      <c r="N14" s="56">
+        <v>2</v>
+      </c>
+      <c r="O14" s="56">
+        <v>0</v>
+      </c>
+      <c r="P14" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="Q14" s="56">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="R14" s="31">
+        <v>162</v>
+      </c>
+      <c r="S14" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T14" s="56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="56">
+        <v>49.46</v>
+      </c>
+      <c r="C15" s="56">
+        <v>1.58</v>
+      </c>
+      <c r="D15" s="56">
+        <v>14.32</v>
+      </c>
+      <c r="E15" s="56">
+        <v>0</v>
+      </c>
+      <c r="F15" s="56">
+        <v>0</v>
+      </c>
+      <c r="G15" s="56">
+        <v>11.24</v>
+      </c>
+      <c r="H15" s="56">
+        <v>0</v>
+      </c>
+      <c r="I15" s="56">
+        <v>7.11</v>
+      </c>
+      <c r="J15" s="56">
+        <v>0</v>
+      </c>
+      <c r="K15" s="56">
+        <v>0</v>
+      </c>
+      <c r="L15" s="56">
+        <v>12.25</v>
+      </c>
+      <c r="M15" s="56">
+        <v>2.92</v>
+      </c>
+      <c r="N15" s="56">
+        <v>2</v>
+      </c>
+      <c r="O15" s="56">
+        <v>0</v>
+      </c>
+      <c r="P15" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="Q15" s="56">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="R15" s="31">
+        <v>417</v>
+      </c>
+      <c r="S15" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T15" s="56">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="56">
+        <v>49.46</v>
+      </c>
+      <c r="C16" s="56">
+        <v>1.58</v>
+      </c>
+      <c r="D16" s="56">
+        <v>14.32</v>
+      </c>
+      <c r="E16" s="56">
+        <v>0</v>
+      </c>
+      <c r="F16" s="56">
+        <v>0</v>
+      </c>
+      <c r="G16" s="56">
+        <v>11.24</v>
+      </c>
+      <c r="H16" s="56">
+        <v>0</v>
+      </c>
+      <c r="I16" s="56">
+        <v>7.11</v>
+      </c>
+      <c r="J16" s="56">
+        <v>0</v>
+      </c>
+      <c r="K16" s="56">
+        <v>0</v>
+      </c>
+      <c r="L16" s="56">
+        <v>12.25</v>
+      </c>
+      <c r="M16" s="56">
+        <v>2.92</v>
+      </c>
+      <c r="N16" s="56">
+        <v>2</v>
+      </c>
+      <c r="O16" s="56">
+        <v>0</v>
+      </c>
+      <c r="P16" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="Q16" s="56">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="R16" s="31">
+        <v>662</v>
+      </c>
+      <c r="S16" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T16" s="56">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="59">
+        <v>49.46</v>
+      </c>
+      <c r="C17" s="59">
+        <v>1.58</v>
+      </c>
+      <c r="D17" s="59">
+        <v>14.32</v>
+      </c>
+      <c r="E17" s="59">
+        <v>0</v>
+      </c>
+      <c r="F17" s="59">
+        <v>0</v>
+      </c>
+      <c r="G17" s="59">
+        <v>11.24</v>
+      </c>
+      <c r="H17" s="59">
+        <v>0</v>
+      </c>
+      <c r="I17" s="59">
+        <v>7.11</v>
+      </c>
+      <c r="J17" s="59">
+        <v>0</v>
+      </c>
+      <c r="K17" s="59">
+        <v>0</v>
+      </c>
+      <c r="L17" s="59">
+        <v>12.25</v>
+      </c>
+      <c r="M17" s="59">
+        <v>2.92</v>
+      </c>
+      <c r="N17" s="59">
+        <v>2</v>
+      </c>
+      <c r="O17" s="59">
+        <v>0</v>
+      </c>
+      <c r="P17" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="Q17" s="56">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="R17" s="31">
+        <v>1232</v>
+      </c>
+      <c r="S17" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T17" s="59">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="62">
+        <v>49.46</v>
+      </c>
+      <c r="C18" s="62">
+        <v>1.58</v>
+      </c>
+      <c r="D18" s="62">
+        <v>14.32</v>
+      </c>
+      <c r="E18" s="62">
+        <v>0</v>
+      </c>
+      <c r="F18" s="62">
+        <v>0</v>
+      </c>
+      <c r="G18" s="62">
+        <v>11.24</v>
+      </c>
+      <c r="H18" s="62">
+        <v>0</v>
+      </c>
+      <c r="I18" s="62">
+        <v>7.11</v>
+      </c>
+      <c r="J18" s="62">
+        <v>0</v>
+      </c>
+      <c r="K18" s="62">
+        <v>0</v>
+      </c>
+      <c r="L18" s="62">
+        <v>12.25</v>
+      </c>
+      <c r="M18" s="62">
+        <v>2.92</v>
+      </c>
+      <c r="N18" s="62">
+        <v>2</v>
+      </c>
+      <c r="O18" s="62">
+        <v>0</v>
+      </c>
+      <c r="P18" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="31">
+        <v>106</v>
+      </c>
+      <c r="S18" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T18" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="62">
+        <v>49.46</v>
+      </c>
+      <c r="C19" s="62">
+        <v>1.58</v>
+      </c>
+      <c r="D19" s="62">
+        <v>14.32</v>
+      </c>
+      <c r="E19" s="62">
+        <v>0</v>
+      </c>
+      <c r="F19" s="62">
+        <v>0</v>
+      </c>
+      <c r="G19" s="62">
+        <v>11.24</v>
+      </c>
+      <c r="H19" s="62">
+        <v>0</v>
+      </c>
+      <c r="I19" s="62">
+        <v>7.11</v>
+      </c>
+      <c r="J19" s="62">
+        <v>0</v>
+      </c>
+      <c r="K19" s="62">
+        <v>0</v>
+      </c>
+      <c r="L19" s="62">
+        <v>12.25</v>
+      </c>
+      <c r="M19" s="62">
+        <v>2.92</v>
+      </c>
+      <c r="N19" s="62">
+        <v>2</v>
+      </c>
+      <c r="O19" s="62">
+        <v>0</v>
+      </c>
+      <c r="P19" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="62">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="R19" s="31">
+        <v>119</v>
+      </c>
+      <c r="S19" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T19" s="62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="62">
+        <v>49.46</v>
+      </c>
+      <c r="C20" s="62">
+        <v>1.58</v>
+      </c>
+      <c r="D20" s="62">
+        <v>14.32</v>
+      </c>
+      <c r="E20" s="62">
+        <v>0</v>
+      </c>
+      <c r="F20" s="62">
+        <v>0</v>
+      </c>
+      <c r="G20" s="62">
+        <v>11.24</v>
+      </c>
+      <c r="H20" s="62">
+        <v>0</v>
+      </c>
+      <c r="I20" s="62">
+        <v>7.11</v>
+      </c>
+      <c r="J20" s="62">
+        <v>0</v>
+      </c>
+      <c r="K20" s="62">
+        <v>0</v>
+      </c>
+      <c r="L20" s="62">
+        <v>12.25</v>
+      </c>
+      <c r="M20" s="62">
+        <v>2.92</v>
+      </c>
+      <c r="N20" s="62">
+        <v>2</v>
+      </c>
+      <c r="O20" s="62">
+        <v>0</v>
+      </c>
+      <c r="P20" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="62">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R20" s="31">
+        <v>144</v>
+      </c>
+      <c r="S20" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T20" s="62">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="62">
+        <v>49.46</v>
+      </c>
+      <c r="C21" s="62">
+        <v>1.58</v>
+      </c>
+      <c r="D21" s="62">
+        <v>14.32</v>
+      </c>
+      <c r="E21" s="62">
+        <v>0</v>
+      </c>
+      <c r="F21" s="62">
+        <v>0</v>
+      </c>
+      <c r="G21" s="62">
+        <v>11.24</v>
+      </c>
+      <c r="H21" s="62">
+        <v>0</v>
+      </c>
+      <c r="I21" s="62">
+        <v>7.11</v>
+      </c>
+      <c r="J21" s="62">
+        <v>0</v>
+      </c>
+      <c r="K21" s="62">
+        <v>0</v>
+      </c>
+      <c r="L21" s="62">
+        <v>12.25</v>
+      </c>
+      <c r="M21" s="62">
+        <v>2.92</v>
+      </c>
+      <c r="N21" s="62">
+        <v>2</v>
+      </c>
+      <c r="O21" s="62">
+        <v>0</v>
+      </c>
+      <c r="P21" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="62">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R21" s="31">
+        <v>169</v>
+      </c>
+      <c r="S21" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T21" s="62">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="62">
+        <v>49.46</v>
+      </c>
+      <c r="C22" s="62">
+        <v>1.58</v>
+      </c>
+      <c r="D22" s="62">
+        <v>14.32</v>
+      </c>
+      <c r="E22" s="62">
+        <v>0</v>
+      </c>
+      <c r="F22" s="62">
+        <v>0</v>
+      </c>
+      <c r="G22" s="62">
+        <v>11.24</v>
+      </c>
+      <c r="H22" s="62">
+        <v>0</v>
+      </c>
+      <c r="I22" s="62">
+        <v>7.11</v>
+      </c>
+      <c r="J22" s="62">
+        <v>0</v>
+      </c>
+      <c r="K22" s="62">
+        <v>0</v>
+      </c>
+      <c r="L22" s="62">
+        <v>12.25</v>
+      </c>
+      <c r="M22" s="62">
+        <v>2.92</v>
+      </c>
+      <c r="N22" s="62">
+        <v>2</v>
+      </c>
+      <c r="O22" s="62">
+        <v>0</v>
+      </c>
+      <c r="P22" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="62">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="R22" s="31">
+        <v>231</v>
+      </c>
+      <c r="S22" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T22" s="62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="62">
+        <v>49.46</v>
+      </c>
+      <c r="C23" s="62">
+        <v>1.58</v>
+      </c>
+      <c r="D23" s="62">
+        <v>14.32</v>
+      </c>
+      <c r="E23" s="62">
+        <v>0</v>
+      </c>
+      <c r="F23" s="62">
+        <v>0</v>
+      </c>
+      <c r="G23" s="62">
+        <v>11.24</v>
+      </c>
+      <c r="H23" s="62">
+        <v>0</v>
+      </c>
+      <c r="I23" s="62">
+        <v>7.11</v>
+      </c>
+      <c r="J23" s="62">
+        <v>0</v>
+      </c>
+      <c r="K23" s="62">
+        <v>0</v>
+      </c>
+      <c r="L23" s="62">
+        <v>12.25</v>
+      </c>
+      <c r="M23" s="62">
+        <v>2.92</v>
+      </c>
+      <c r="N23" s="62">
+        <v>2</v>
+      </c>
+      <c r="O23" s="62">
+        <v>0</v>
+      </c>
+      <c r="P23" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="62">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="R23" s="31">
+        <v>472</v>
+      </c>
+      <c r="S23" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T23" s="62">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="62">
+        <v>49.46</v>
+      </c>
+      <c r="C24" s="62">
+        <v>1.58</v>
+      </c>
+      <c r="D24" s="62">
+        <v>14.32</v>
+      </c>
+      <c r="E24" s="62">
+        <v>0</v>
+      </c>
+      <c r="F24" s="62">
+        <v>0</v>
+      </c>
+      <c r="G24" s="62">
+        <v>11.24</v>
+      </c>
+      <c r="H24" s="62">
+        <v>0</v>
+      </c>
+      <c r="I24" s="62">
+        <v>7.11</v>
+      </c>
+      <c r="J24" s="62">
+        <v>0</v>
+      </c>
+      <c r="K24" s="62">
+        <v>0</v>
+      </c>
+      <c r="L24" s="62">
+        <v>12.25</v>
+      </c>
+      <c r="M24" s="62">
+        <v>2.92</v>
+      </c>
+      <c r="N24" s="62">
+        <v>2</v>
+      </c>
+      <c r="O24" s="62">
+        <v>0</v>
+      </c>
+      <c r="P24" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="62">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="R24" s="31">
+        <v>703</v>
+      </c>
+      <c r="S24" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T24" s="62">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="64">
+        <v>49.46</v>
+      </c>
+      <c r="C25" s="64">
+        <v>1.58</v>
+      </c>
+      <c r="D25" s="64">
+        <v>14.32</v>
+      </c>
+      <c r="E25" s="64">
+        <v>0</v>
+      </c>
+      <c r="F25" s="64">
+        <v>0</v>
+      </c>
+      <c r="G25" s="64">
+        <v>11.24</v>
+      </c>
+      <c r="H25" s="64">
+        <v>0</v>
+      </c>
+      <c r="I25" s="64">
+        <v>7.11</v>
+      </c>
+      <c r="J25" s="64">
+        <v>0</v>
+      </c>
+      <c r="K25" s="64">
+        <v>0</v>
+      </c>
+      <c r="L25" s="64">
+        <v>12.25</v>
+      </c>
+      <c r="M25" s="64">
+        <v>2.92</v>
+      </c>
+      <c r="N25" s="64">
+        <v>2</v>
+      </c>
+      <c r="O25" s="64">
+        <v>0</v>
+      </c>
+      <c r="P25" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="62">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="R25" s="31">
+        <v>1245</v>
+      </c>
+      <c r="S25" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T25" s="64">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="66">
+        <v>49.46</v>
+      </c>
+      <c r="C26" s="66">
+        <v>1.58</v>
+      </c>
+      <c r="D26" s="66">
+        <v>14.32</v>
+      </c>
+      <c r="E26" s="66">
+        <v>0</v>
+      </c>
+      <c r="F26" s="66">
+        <v>0</v>
+      </c>
+      <c r="G26" s="66">
+        <v>11.24</v>
+      </c>
+      <c r="H26" s="66">
+        <v>0</v>
+      </c>
+      <c r="I26" s="66">
+        <v>7.11</v>
+      </c>
+      <c r="J26" s="66">
+        <v>0</v>
+      </c>
+      <c r="K26" s="66">
+        <v>0</v>
+      </c>
+      <c r="L26" s="66">
+        <v>12.25</v>
+      </c>
+      <c r="M26" s="66">
+        <v>2.92</v>
+      </c>
+      <c r="N26" s="66">
+        <v>2</v>
+      </c>
+      <c r="O26" s="66">
+        <v>0</v>
+      </c>
+      <c r="P26" s="66">
+        <v>1.5</v>
+      </c>
+      <c r="Q26" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="31">
+        <v>218</v>
+      </c>
+      <c r="S26" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T26" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="66">
+        <v>49.46</v>
+      </c>
+      <c r="C27" s="66">
+        <v>1.58</v>
+      </c>
+      <c r="D27" s="66">
+        <v>14.32</v>
+      </c>
+      <c r="E27" s="66">
+        <v>0</v>
+      </c>
+      <c r="F27" s="66">
+        <v>0</v>
+      </c>
+      <c r="G27" s="66">
+        <v>11.24</v>
+      </c>
+      <c r="H27" s="66">
+        <v>0</v>
+      </c>
+      <c r="I27" s="66">
+        <v>7.11</v>
+      </c>
+      <c r="J27" s="66">
+        <v>0</v>
+      </c>
+      <c r="K27" s="66">
+        <v>0</v>
+      </c>
+      <c r="L27" s="66">
+        <v>12.25</v>
+      </c>
+      <c r="M27" s="66">
+        <v>2.92</v>
+      </c>
+      <c r="N27" s="66">
+        <v>2</v>
+      </c>
+      <c r="O27" s="66">
+        <v>0</v>
+      </c>
+      <c r="P27" s="66">
+        <v>1.5</v>
+      </c>
+      <c r="Q27" s="66">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="R27" s="31">
+        <v>229</v>
+      </c>
+      <c r="S27" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T27" s="66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="66">
+        <v>49.46</v>
+      </c>
+      <c r="C28" s="66">
+        <v>1.58</v>
+      </c>
+      <c r="D28" s="66">
+        <v>14.32</v>
+      </c>
+      <c r="E28" s="66">
+        <v>0</v>
+      </c>
+      <c r="F28" s="66">
+        <v>0</v>
+      </c>
+      <c r="G28" s="66">
+        <v>11.24</v>
+      </c>
+      <c r="H28" s="66">
+        <v>0</v>
+      </c>
+      <c r="I28" s="66">
+        <v>7.11</v>
+      </c>
+      <c r="J28" s="66">
+        <v>0</v>
+      </c>
+      <c r="K28" s="66">
+        <v>0</v>
+      </c>
+      <c r="L28" s="66">
+        <v>12.25</v>
+      </c>
+      <c r="M28" s="66">
+        <v>2.92</v>
+      </c>
+      <c r="N28" s="66">
+        <v>2</v>
+      </c>
+      <c r="O28" s="66">
+        <v>0</v>
+      </c>
+      <c r="P28" s="66">
+        <v>1.5</v>
+      </c>
+      <c r="Q28" s="66">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R28" s="31">
+        <v>253</v>
+      </c>
+      <c r="S28" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T28" s="66">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="66">
+        <v>49.46</v>
+      </c>
+      <c r="C29" s="66">
+        <v>1.58</v>
+      </c>
+      <c r="D29" s="66">
+        <v>14.32</v>
+      </c>
+      <c r="E29" s="66">
+        <v>0</v>
+      </c>
+      <c r="F29" s="66">
+        <v>0</v>
+      </c>
+      <c r="G29" s="66">
+        <v>11.24</v>
+      </c>
+      <c r="H29" s="66">
+        <v>0</v>
+      </c>
+      <c r="I29" s="66">
+        <v>7.11</v>
+      </c>
+      <c r="J29" s="66">
+        <v>0</v>
+      </c>
+      <c r="K29" s="66">
+        <v>0</v>
+      </c>
+      <c r="L29" s="66">
+        <v>12.25</v>
+      </c>
+      <c r="M29" s="66">
+        <v>2.92</v>
+      </c>
+      <c r="N29" s="66">
+        <v>2</v>
+      </c>
+      <c r="O29" s="66">
+        <v>0</v>
+      </c>
+      <c r="P29" s="66">
+        <v>1.5</v>
+      </c>
+      <c r="Q29" s="66">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R29" s="31">
+        <v>276</v>
+      </c>
+      <c r="S29" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T29" s="66">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="66">
+        <v>49.46</v>
+      </c>
+      <c r="C30" s="66">
+        <v>1.58</v>
+      </c>
+      <c r="D30" s="66">
+        <v>14.32</v>
+      </c>
+      <c r="E30" s="66">
+        <v>0</v>
+      </c>
+      <c r="F30" s="66">
+        <v>0</v>
+      </c>
+      <c r="G30" s="66">
+        <v>11.24</v>
+      </c>
+      <c r="H30" s="66">
+        <v>0</v>
+      </c>
+      <c r="I30" s="66">
+        <v>7.11</v>
+      </c>
+      <c r="J30" s="66">
+        <v>0</v>
+      </c>
+      <c r="K30" s="66">
+        <v>0</v>
+      </c>
+      <c r="L30" s="66">
+        <v>12.25</v>
+      </c>
+      <c r="M30" s="66">
+        <v>2.92</v>
+      </c>
+      <c r="N30" s="66">
+        <v>2</v>
+      </c>
+      <c r="O30" s="66">
+        <v>0</v>
+      </c>
+      <c r="P30" s="66">
+        <v>1.5</v>
+      </c>
+      <c r="Q30" s="66">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="R30" s="31">
+        <v>335</v>
+      </c>
+      <c r="S30" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T30" s="66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="66">
+        <v>49.46</v>
+      </c>
+      <c r="C31" s="66">
+        <v>1.58</v>
+      </c>
+      <c r="D31" s="66">
+        <v>14.32</v>
+      </c>
+      <c r="E31" s="66">
+        <v>0</v>
+      </c>
+      <c r="F31" s="66">
+        <v>0</v>
+      </c>
+      <c r="G31" s="66">
+        <v>11.24</v>
+      </c>
+      <c r="H31" s="66">
+        <v>0</v>
+      </c>
+      <c r="I31" s="66">
+        <v>7.11</v>
+      </c>
+      <c r="J31" s="66">
+        <v>0</v>
+      </c>
+      <c r="K31" s="66">
+        <v>0</v>
+      </c>
+      <c r="L31" s="66">
+        <v>12.25</v>
+      </c>
+      <c r="M31" s="66">
+        <v>2.92</v>
+      </c>
+      <c r="N31" s="66">
+        <v>2</v>
+      </c>
+      <c r="O31" s="66">
+        <v>0</v>
+      </c>
+      <c r="P31" s="66">
+        <v>1.5</v>
+      </c>
+      <c r="Q31" s="66">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="R31" s="31">
+        <v>562</v>
+      </c>
+      <c r="S31" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T31" s="66">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="66">
+        <v>49.46</v>
+      </c>
+      <c r="C32" s="66">
+        <v>1.58</v>
+      </c>
+      <c r="D32" s="66">
+        <v>14.32</v>
+      </c>
+      <c r="E32" s="66">
+        <v>0</v>
+      </c>
+      <c r="F32" s="66">
+        <v>0</v>
+      </c>
+      <c r="G32" s="66">
+        <v>11.24</v>
+      </c>
+      <c r="H32" s="66">
+        <v>0</v>
+      </c>
+      <c r="I32" s="66">
+        <v>7.11</v>
+      </c>
+      <c r="J32" s="66">
+        <v>0</v>
+      </c>
+      <c r="K32" s="66">
+        <v>0</v>
+      </c>
+      <c r="L32" s="66">
+        <v>12.25</v>
+      </c>
+      <c r="M32" s="66">
+        <v>2.92</v>
+      </c>
+      <c r="N32" s="66">
+        <v>2</v>
+      </c>
+      <c r="O32" s="66">
+        <v>0</v>
+      </c>
+      <c r="P32" s="66">
+        <v>1.5</v>
+      </c>
+      <c r="Q32" s="66">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="R32" s="31">
+        <v>780</v>
+      </c>
+      <c r="S32" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T32" s="66">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="67">
+        <v>49.46</v>
+      </c>
+      <c r="C33" s="67">
+        <v>1.58</v>
+      </c>
+      <c r="D33" s="67">
+        <v>14.32</v>
+      </c>
+      <c r="E33" s="67">
+        <v>0</v>
+      </c>
+      <c r="F33" s="67">
+        <v>0</v>
+      </c>
+      <c r="G33" s="67">
+        <v>11.24</v>
+      </c>
+      <c r="H33" s="67">
+        <v>0</v>
+      </c>
+      <c r="I33" s="67">
+        <v>7.11</v>
+      </c>
+      <c r="J33" s="67">
+        <v>0</v>
+      </c>
+      <c r="K33" s="67">
+        <v>0</v>
+      </c>
+      <c r="L33" s="67">
+        <v>12.25</v>
+      </c>
+      <c r="M33" s="67">
+        <v>2.92</v>
+      </c>
+      <c r="N33" s="67">
+        <v>2</v>
+      </c>
+      <c r="O33" s="67">
+        <v>0</v>
+      </c>
+      <c r="P33" s="66">
+        <v>1.5</v>
+      </c>
+      <c r="Q33" s="66">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="R33" s="31">
+        <v>1293</v>
+      </c>
+      <c r="S33" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T33" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DA7ED6-C4F7-45DA-926B-E98439E273A0}">
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="16" max="17" width="8.796875" style="51"/>
+    <col min="18" max="20" width="8.796875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2">
+        <v>57.44</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="D2" s="2">
+        <v>17.53</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>7.42</v>
+      </c>
+      <c r="M2" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="52">
+        <f>T2/10000</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="52">
+        <v>0</v>
+      </c>
+      <c r="S2" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T2" s="52">
+        <v>0</v>
+      </c>
+      <c r="U2" s="31"/>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="30">
+        <f t="shared" ref="W2" si="0">R2*10^4-Q2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2">
+        <v>57.44</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="D3" s="2">
+        <v>17.53</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>7.42</v>
+      </c>
+      <c r="M3" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="52">
+        <f t="shared" ref="Q3:Q25" si="1">T3/10000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="R3" s="31">
+        <v>18.940000000000001</v>
+      </c>
+      <c r="S3" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T3" s="52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2">
+        <v>57.44</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="D4" s="2">
+        <v>17.53</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>7.42</v>
+      </c>
+      <c r="M4" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="52">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R4" s="31">
+        <v>56.65</v>
+      </c>
+      <c r="S4" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T4" s="52">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2">
+        <v>57.44</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="D5" s="2">
+        <v>17.53</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>7.42</v>
+      </c>
+      <c r="M5" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="52">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R5" s="31">
+        <v>94.1</v>
+      </c>
+      <c r="S5" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T5" s="52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2">
+        <v>57.44</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="D6" s="2">
+        <v>17.53</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>7.42</v>
+      </c>
+      <c r="M6" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="52">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="R6" s="31">
+        <v>187</v>
+      </c>
+      <c r="S6" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T6" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="2">
+        <v>57.44</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="D7" s="2">
+        <v>17.53</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>7.42</v>
+      </c>
+      <c r="M7" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="52">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="R7" s="31">
+        <v>543</v>
+      </c>
+      <c r="S7" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T7" s="52">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>57.44</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="D8" s="2">
+        <v>17.53</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>7.42</v>
+      </c>
+      <c r="M8" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="52">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="R8" s="31">
+        <v>879</v>
+      </c>
+      <c r="S8" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T8" s="52">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="2">
+        <v>57.44</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="D9" s="2">
+        <v>17.53</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>7.42</v>
+      </c>
+      <c r="M9" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="52">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="R9" s="31">
+        <v>1644</v>
+      </c>
+      <c r="S9" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T9" s="54">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="2">
+        <v>57.44</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="D10" s="2">
+        <v>17.53</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>7.42</v>
+      </c>
+      <c r="M10" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="31">
+        <v>63.43</v>
+      </c>
+      <c r="S10" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T10" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="2">
+        <v>57.44</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="D11" s="2">
+        <v>17.53</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>7.42</v>
+      </c>
+      <c r="M11" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="56">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="R11" s="31">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="S11" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T11" s="56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2">
+        <v>57.44</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="D12" s="2">
+        <v>17.53</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>7.42</v>
+      </c>
+      <c r="M12" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="Q12" s="56">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R12" s="31">
+        <v>118</v>
+      </c>
+      <c r="S12" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T12" s="56">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="2">
+        <v>57.44</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="D13" s="2">
+        <v>17.53</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>7.42</v>
+      </c>
+      <c r="M13" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" s="56">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R13" s="31">
+        <v>154</v>
+      </c>
+      <c r="S13" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T13" s="56">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2">
+        <v>57.44</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="D14" s="2">
+        <v>17.53</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>7.42</v>
+      </c>
+      <c r="M14" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="Q14" s="56">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="R14" s="31">
+        <v>243</v>
+      </c>
+      <c r="S14" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T14" s="56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="2">
+        <v>57.44</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="D15" s="2">
+        <v>17.53</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>7.42</v>
+      </c>
+      <c r="M15" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="Q15" s="56">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="R15" s="31">
+        <v>585</v>
+      </c>
+      <c r="S15" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T15" s="56">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2">
+        <v>57.44</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="D16" s="2">
+        <v>17.53</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>7.42</v>
+      </c>
+      <c r="M16" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="Q16" s="56">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="R16" s="31">
+        <v>909</v>
+      </c>
+      <c r="S16" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T16" s="56">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="2">
+        <v>57.44</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="D17" s="2">
+        <v>17.53</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>7.42</v>
+      </c>
+      <c r="M17" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="Q17" s="56">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="R17" s="31">
+        <v>1648</v>
+      </c>
+      <c r="S17" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T17" s="59">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="2">
+        <v>57.44</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="D18" s="2">
+        <v>17.53</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>7.42</v>
+      </c>
+      <c r="M18" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="31">
+        <v>225</v>
+      </c>
+      <c r="S18" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T18" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="2">
+        <v>57.44</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="D19" s="2">
+        <v>17.53</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>7.42</v>
+      </c>
+      <c r="M19" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="62">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="R19" s="31">
+        <v>242</v>
+      </c>
+      <c r="S19" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T19" s="62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2">
+        <v>57.44</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="D20" s="2">
+        <v>17.53</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>7.42</v>
+      </c>
+      <c r="M20" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="62">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R20" s="31">
+        <v>277</v>
+      </c>
+      <c r="S20" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T20" s="62">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="2">
+        <v>57.44</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="D21" s="2">
+        <v>17.53</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>7.42</v>
+      </c>
+      <c r="M21" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="62">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R21" s="31">
+        <v>311</v>
+      </c>
+      <c r="S21" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T21" s="62">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="2">
+        <v>57.44</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="D22" s="2">
+        <v>17.53</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>7.42</v>
+      </c>
+      <c r="M22" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="N22" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="62">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="R22" s="31">
+        <v>396</v>
+      </c>
+      <c r="S22" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T22" s="62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="2">
+        <v>57.44</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="D23" s="2">
+        <v>17.53</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>7.42</v>
+      </c>
+      <c r="M23" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="62">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="R23" s="31">
+        <v>722</v>
+      </c>
+      <c r="S23" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T23" s="62">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="2">
+        <v>57.44</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="D24" s="2">
+        <v>17.53</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>7.42</v>
+      </c>
+      <c r="M24" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="N24" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="62">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="R24" s="31">
+        <v>1031</v>
+      </c>
+      <c r="S24" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T24" s="62">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="2">
+        <v>57.44</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="D25" s="2">
+        <v>17.53</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>7.42</v>
+      </c>
+      <c r="M25" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="N25" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="62">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="R25" s="31">
+        <v>1740</v>
+      </c>
+      <c r="S25" s="52">
+        <v>1100</v>
+      </c>
+      <c r="T25" s="64">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>